--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="lines" sheetId="2" r:id="rId2"/>
-    <sheet name="test" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,13 +584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -496,7 +496,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,14 +582,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="lines" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -584,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -612,4 +613,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>